--- a/GAM200_Roguebot/Roguebot_rubric.xlsx
+++ b/GAM200_Roguebot/Roguebot_rubric.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10200" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Instructor Grade" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3393,9 +3392,6 @@
     <t>Our attack animations came in</t>
   </si>
   <si>
-    <t>We got music in</t>
-  </si>
-  <si>
     <t>we got actually good ones in</t>
   </si>
   <si>
@@ -3432,18 +3428,6 @@
     <t>no TDD</t>
   </si>
   <si>
-    <t>mouse movement response without focus</t>
-  </si>
-  <si>
-    <t>audio does not pause from minimized</t>
-  </si>
-  <si>
-    <t>OS background is not restored when switched to windowed</t>
-  </si>
-  <si>
-    <t>windows title bar is briefly visible when launched</t>
-  </si>
-  <si>
     <t>We do not require any redistributable libraries. We statically link the CRT. DirectX 11 is already installed on Windows 7+. We do NOT use D3DX because it is a deprecated library.</t>
   </si>
   <si>
@@ -3454,6 +3438,21 @@
   </si>
   <si>
     <t>Esc now just returns to main menu from victory and game over screens.</t>
+  </si>
+  <si>
+    <t>Mouse position is still detected, but clicks and keyboard input are ignored.</t>
+  </si>
+  <si>
+    <t>Audio now pauses from minimized</t>
+  </si>
+  <si>
+    <t>OS background bug does not happen when windows DWM is properly running. Make sure the theme isn't windows basic.</t>
+  </si>
+  <si>
+    <t>Could not reproduce when running on lab machine with DWM properly enabled (Not basic theme).</t>
+  </si>
+  <si>
+    <t>We got music in. NOTE: The lab machine in our teamspace does NOT have speakers, and you will need headphones to hear the audio.</t>
   </si>
 </sst>
 </file>
@@ -4584,6 +4583,87 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4611,94 +4691,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4708,6 +4710,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4731,20 +4742,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4759,48 +4770,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4829,6 +4798,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20286,51 +20285,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="151"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="151"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
-        <v>912</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
+      <c r="A2" s="152" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="152" t="s">
         <v>887</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="127"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="128"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="130"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="157"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="35"/>
@@ -20350,39 +20349,39 @@
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="6"/>
       <c r="K5" s="30"/>
       <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="134" t="s">
-        <v>917</v>
-      </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
+      <c r="A6" s="146" t="s">
+        <v>916</v>
+      </c>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="134" t="s">
-        <v>914</v>
-      </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="F6" s="146" t="s">
+        <v>913</v>
+      </c>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="131" t="s">
+      <c r="K6" s="143" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="35"/>
@@ -20393,48 +20392,48 @@
       <c r="C7" s="5"/>
       <c r="D7" s="37"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="134" t="s">
-        <v>913</v>
-      </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
+      <c r="F7" s="146" t="s">
+        <v>912</v>
+      </c>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="148"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="132"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="146" t="s">
+        <v>914</v>
+      </c>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="146" t="s">
         <v>915</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="134" t="s">
-        <v>916</v>
-      </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="133"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20452,17 +20451,17 @@
       <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="124"/>
+      <c r="G11" s="151"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -20501,7 +20500,7 @@
         <v>-0.1</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="143" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="35"/>
@@ -20531,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="132"/>
+      <c r="K13" s="144"/>
       <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20558,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="133"/>
+      <c r="K14" s="145"/>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20618,10 +20617,10 @@
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="124"/>
+      <c r="G17" s="151"/>
       <c r="H17" s="2"/>
       <c r="I17" s="38">
         <v>0.75</v>
@@ -20639,16 +20638,16 @@
       <c r="F18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="127" t="s">
         <v>888</v>
       </c>
-      <c r="H18" s="138"/>
+      <c r="H18" s="129"/>
       <c r="I18" s="43">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="54"/>
-      <c r="K18" s="131" t="s">
+      <c r="K18" s="143" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="35"/>
@@ -20662,16 +20661,16 @@
       <c r="F19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="139" t="s">
+      <c r="G19" s="133" t="s">
         <v>885</v>
       </c>
-      <c r="H19" s="140"/>
+      <c r="H19" s="135"/>
       <c r="I19" s="51">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="6"/>
-      <c r="K19" s="133"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20699,7 +20698,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="46"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="155" t="s">
+      <c r="F21" s="140" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="55"/>
@@ -20715,17 +20714,17 @@
       <c r="C22" s="45"/>
       <c r="D22" s="46"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="156"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="55"/>
       <c r="H22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="141">
+      <c r="I22" s="122">
         <f>I20+I15</f>
         <v>0.75</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="143" t="s">
+      <c r="K22" s="124" t="s">
         <v>24</v>
       </c>
       <c r="L22" s="35"/>
@@ -20736,14 +20735,14 @@
       <c r="C23" s="45"/>
       <c r="D23" s="46"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="156"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="55"/>
       <c r="H23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="142"/>
+      <c r="I23" s="123"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="144"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -20752,7 +20751,7 @@
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="157"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
@@ -20780,12 +20779,12 @@
       <c r="C26" s="45"/>
       <c r="D26" s="46"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="145" t="s">
+      <c r="F26" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="35"/>
@@ -20796,12 +20795,12 @@
       <c r="C27" s="45"/>
       <c r="D27" s="46"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="138"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="35"/>
@@ -20812,10 +20811,10 @@
       <c r="C28" s="45"/>
       <c r="D28" s="46"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="132"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="35"/>
@@ -20826,10 +20825,10 @@
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="149"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="35"/>
@@ -20840,26 +20839,26 @@
       <c r="C30" s="45"/>
       <c r="D30" s="46"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="149"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="132"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="154"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="140"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="135"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="35"/>
@@ -20880,13 +20879,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -20902,12 +20900,13 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D6">
@@ -20948,7 +20947,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20964,65 +20963,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="185" t="s">
         <v>699</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="200" t="s">
         <v>682</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="185" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="200" t="s">
         <v>683</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="185" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="200" t="s">
         <v>684</v>
       </c>
-      <c r="H1" s="186"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="196"/>
+      <c r="A2" s="186"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="202" t="s">
         <v>681</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="203"/>
+      <c r="E2" s="202" t="s">
         <v>681</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="187" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="202" t="s">
         <v>681</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="J2" s="198" t="s">
+      <c r="H2" s="203"/>
+      <c r="J2" s="188" t="s">
         <v>700</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="200"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="197"/>
+      <c r="A3" s="187"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="189">
+      <c r="C3" s="198">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),0.01))))</f>
-        <v>0.84</v>
-      </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="189">
+        <v>0.86</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="198">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),0.01))))</f>
-        <v>0.85</v>
-      </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="189">
+        <v>0.86</v>
+      </c>
+      <c r="F3" s="199"/>
+      <c r="G3" s="198">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),0.01))))</f>
         <v>0.86</v>
       </c>
-      <c r="H3" s="190"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="203"/>
+      <c r="H3" s="199"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -21042,18 +21041,18 @@
         <v>685</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="149" t="s">
         <v>686</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="149" t="s">
         <v>687</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="122" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="149" t="s">
         <v>688</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="151"/>
       <c r="J5" s="77" t="s">
         <v>701</v>
       </c>
@@ -21068,24 +21067,24 @@
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="192">
+      <c r="C6" s="195">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>9.1249999999999998E-2</v>
-      </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="192">
+        <v>0.11125</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="195">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>0.10125000000000001</v>
-      </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="192">
+        <v>0.11125</v>
+      </c>
+      <c r="F6" s="196"/>
+      <c r="G6" s="195">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.10625</v>
-      </c>
-      <c r="H6" s="193"/>
+        <v>0.11125</v>
+      </c>
+      <c r="H6" s="196"/>
       <c r="J6" s="92">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>8.1250000000000031E-2</v>
+        <v>6.8750000000000033E-2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="90">
@@ -21096,18 +21095,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>689</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="197" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="197" t="s">
         <v>691</v>
       </c>
-      <c r="H7" s="194"/>
+      <c r="H7" s="197"/>
       <c r="J7" s="91"/>
       <c r="K7" s="3"/>
       <c r="L7" s="89"/>
@@ -21224,28 +21223,28 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$E$4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>-5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J11" s="89"/>
       <c r="K11" s="3"/>
@@ -21281,7 +21280,7 @@
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J12" s="131" t="s">
+      <c r="J12" s="143" t="s">
         <v>714</v>
       </c>
       <c r="K12" s="31"/>
@@ -21319,7 +21318,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="132"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="31"/>
       <c r="L13" s="104" t="s">
         <v>707</v>
@@ -21355,7 +21354,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="132"/>
+      <c r="J14" s="144"/>
       <c r="K14" s="105"/>
       <c r="L14" s="104" t="s">
         <v>708</v>
@@ -21369,23 +21368,23 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>5.000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>1.5000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>0.02</v>
-      </c>
-      <c r="J15" s="132"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J15" s="144"/>
       <c r="K15" s="105"/>
       <c r="L15" s="104" t="s">
         <v>709</v>
@@ -21394,19 +21393,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191" t="s">
+      <c r="F16" s="194"/>
+      <c r="G16" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H16" s="191"/>
-      <c r="J16" s="132"/>
+      <c r="H16" s="194"/>
+      <c r="J16" s="144"/>
       <c r="K16" s="105"/>
       <c r="L16" s="104" t="s">
         <v>710</v>
@@ -21437,7 +21436,7 @@
       <c r="H17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="132"/>
+      <c r="J17" s="144"/>
       <c r="K17" s="105"/>
       <c r="L17" s="104" t="s">
         <v>711</v>
@@ -21473,7 +21472,7 @@
         <f t="shared" ref="H18:H23" si="5">B18*G18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="132"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="105"/>
       <c r="L18" s="104" t="s">
         <v>712</v>
@@ -21509,7 +21508,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="133"/>
+      <c r="J19" s="145"/>
       <c r="K19" s="105"/>
       <c r="L19" s="103" t="s">
         <v>713</v>
@@ -21667,18 +21666,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191" t="s">
+      <c r="D25" s="194"/>
+      <c r="E25" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191" t="s">
+      <c r="F25" s="194"/>
+      <c r="G25" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H25" s="191"/>
+      <c r="H25" s="194"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -21920,18 +21919,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="194"/>
+      <c r="E34" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191" t="s">
+      <c r="F34" s="194"/>
+      <c r="G34" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H34" s="191"/>
+      <c r="H34" s="194"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -22173,18 +22172,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191" t="s">
+      <c r="D43" s="194"/>
+      <c r="E43" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191" t="s">
+      <c r="F43" s="194"/>
+      <c r="G43" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H43" s="191"/>
+      <c r="H43" s="194"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -22426,18 +22425,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191" t="s">
+      <c r="D52" s="194"/>
+      <c r="E52" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191" t="s">
+      <c r="F52" s="194"/>
+      <c r="G52" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H52" s="191"/>
+      <c r="H52" s="194"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -22678,6 +22677,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -22694,27 +22714,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -22741,54 +22740,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="160"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
     </row>
     <row r="3" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="165" t="s">
         <v>718</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="160"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="167"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -22817,10 +22816,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -22836,10 +22835,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="172"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="12">
         <v>0</v>
       </c>
@@ -22855,10 +22854,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="12">
         <v>0</v>
       </c>
@@ -22874,10 +22873,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="173"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="12">
         <v>0</v>
       </c>
@@ -22893,10 +22892,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="173"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="12">
         <v>0</v>
       </c>
@@ -22912,10 +22911,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="172"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="12">
         <v>0</v>
       </c>
@@ -22931,10 +22930,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="172"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="12">
         <v>0</v>
       </c>
@@ -22950,10 +22949,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="175"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="19">
         <v>0</v>
       </c>
@@ -22970,11 +22969,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
       <c r="E16" s="108">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -22993,93 +22992,88 @@
       <c r="A18" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="164"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="160"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="158" t="s">
+      <c r="B20" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="160"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="160"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="160"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
     </row>
     <row r="24" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="160"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -23096,6 +23090,11 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -23106,8 +23105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23136,7 +23135,7 @@
       </c>
       <c r="E1" s="7" t="str">
         <f>""&amp;COUNTIF(E$10:E$250,$A$2)&amp;" "&amp;$A$2</f>
-        <v>10 Untested</v>
+        <v>14 Untested</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>71</v>
@@ -23149,7 +23148,7 @@
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>876</v>
       </c>
       <c r="D2" s="66">
@@ -23172,7 +23171,7 @@
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -23193,14 +23192,14 @@
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>"Intermediate "&amp;$F$1&amp;"s "&amp;A3</f>
@@ -23214,10 +23213,10 @@
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -23235,14 +23234,14 @@
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>2</v>
       </c>
       <c r="E6" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>"Advanced "&amp;$F$1&amp;"s "&amp;A3</f>
@@ -23256,7 +23255,7 @@
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>9</v>
@@ -23277,7 +23276,7 @@
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -23292,11 +23291,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -23311,10 +23310,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>717</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>859</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>72</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23439,10 +23438,10 @@
       <c r="F16" s="60"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="176" t="s">
         <v>731</v>
       </c>
-      <c r="B17" s="182"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="8" t="s">
         <v>861</v>
       </c>
@@ -23473,7 +23472,7 @@
         <v>78</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -23603,7 +23602,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -23641,7 +23640,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23663,10 +23662,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="178" t="s">
         <v>732</v>
       </c>
-      <c r="B29" s="184"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="8" t="s">
         <v>884</v>
       </c>
@@ -24151,10 +24150,10 @@
       <c r="F55" s="60"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="181" t="s">
+      <c r="A56" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="182"/>
+      <c r="B56" s="177"/>
       <c r="C56" s="8" t="s">
         <v>87</v>
       </c>
@@ -24315,7 +24314,7 @@
         <v>72</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24371,7 +24370,7 @@
         <v>72</v>
       </c>
       <c r="F67" s="60" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24393,10 +24392,10 @@
       <c r="F68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="181" t="s">
+      <c r="A69" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="182"/>
+      <c r="B69" s="177"/>
       <c r="C69" s="8" t="s">
         <v>87</v>
       </c>
@@ -24559,10 +24558,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="181" t="s">
+      <c r="A78" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="182"/>
+      <c r="B78" s="177"/>
       <c r="C78" s="8" t="s">
         <v>87</v>
       </c>
@@ -24667,10 +24666,10 @@
       <c r="F83" s="60"/>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="182"/>
+      <c r="B84" s="177"/>
       <c r="C84" s="8" t="s">
         <v>87</v>
       </c>
@@ -24755,7 +24754,7 @@
         <v>72</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24787,13 +24786,13 @@
         <v>175</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -24810,10 +24809,10 @@
         <v>78</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -24848,10 +24847,10 @@
         <v>78</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -24868,10 +24867,10 @@
         <v>78</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -24911,10 +24910,10 @@
       <c r="F96" s="60"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="181" t="s">
+      <c r="A97" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="B97" s="182"/>
+      <c r="B97" s="177"/>
       <c r="C97" s="8" t="s">
         <v>87</v>
       </c>
@@ -25001,10 +25000,10 @@
       <c r="F101" s="60"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="181" t="s">
+      <c r="A102" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="182"/>
+      <c r="B102" s="177"/>
       <c r="C102" s="8" t="s">
         <v>87</v>
       </c>
@@ -25145,10 +25144,10 @@
       <c r="F109" s="60"/>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="181" t="s">
+      <c r="A110" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="182"/>
+      <c r="B110" s="177"/>
       <c r="C110" s="8" t="s">
         <v>87</v>
       </c>
@@ -25217,10 +25216,10 @@
       <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="181" t="s">
+      <c r="A114" s="176" t="s">
         <v>211</v>
       </c>
-      <c r="B114" s="182"/>
+      <c r="B114" s="177"/>
       <c r="C114" s="8" t="s">
         <v>87</v>
       </c>
@@ -25289,10 +25288,10 @@
       <c r="F117" s="60"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="181" t="s">
+      <c r="A118" s="176" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="182"/>
+      <c r="B118" s="177"/>
       <c r="C118" s="8" t="s">
         <v>815</v>
       </c>
@@ -25452,6 +25451,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -25461,11 +25465,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
     <cfRule type="beginsWith" dxfId="1138" priority="434" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -26704,7 +26703,7 @@
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>853</v>
       </c>
       <c r="D2" s="66">
@@ -26727,7 +26726,7 @@
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -26748,7 +26747,7 @@
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -26769,7 +26768,7 @@
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -26790,7 +26789,7 @@
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -26811,7 +26810,7 @@
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>7</v>
@@ -26832,7 +26831,7 @@
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -26847,11 +26846,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -26866,10 +26865,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>802</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>854</v>
       </c>
@@ -26956,10 +26955,10 @@
       <c r="F14" s="60"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="176" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="8" t="s">
         <v>87</v>
       </c>
@@ -27108,10 +27107,10 @@
       <c r="F22" s="60"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="182"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="8" t="s">
         <v>87</v>
       </c>
@@ -27256,10 +27255,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="176" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="8" t="s">
         <v>87</v>
       </c>
@@ -27742,10 +27741,10 @@
       <c r="F56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="181" t="s">
+      <c r="A57" s="176" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="182"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="73" t="s">
         <v>824</v>
       </c>
@@ -28142,10 +28141,10 @@
       <c r="F77" s="60"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="181" t="s">
+      <c r="A78" s="176" t="s">
         <v>298</v>
       </c>
-      <c r="B78" s="182"/>
+      <c r="B78" s="177"/>
       <c r="C78" s="8" t="s">
         <v>87</v>
       </c>
@@ -29552,7 +29551,7 @@
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>822</v>
       </c>
       <c r="D2" s="66">
@@ -29575,7 +29574,7 @@
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -29596,7 +29595,7 @@
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -29617,7 +29616,7 @@
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -29638,7 +29637,7 @@
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -29659,7 +29658,7 @@
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>2</v>
@@ -29680,7 +29679,7 @@
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -29695,11 +29694,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>1</v>
@@ -29714,10 +29713,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
@@ -29940,10 +29939,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="176" t="s">
         <v>527</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="8" t="s">
         <v>87</v>
       </c>
@@ -30102,10 +30101,10 @@
       <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="181" t="s">
+      <c r="A31" s="176" t="s">
         <v>543</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="177"/>
       <c r="C31" s="8" t="s">
         <v>87</v>
       </c>
@@ -30328,10 +30327,10 @@
       <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="176" t="s">
         <v>654</v>
       </c>
-      <c r="B43" s="182"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="8" t="s">
         <v>87</v>
       </c>
@@ -30634,7 +30633,7 @@
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>378</v>
       </c>
       <c r="D2" s="66">
@@ -30657,7 +30656,7 @@
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -30678,7 +30677,7 @@
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -30699,7 +30698,7 @@
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -30720,7 +30719,7 @@
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>2</v>
@@ -30741,7 +30740,7 @@
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -30762,7 +30761,7 @@
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -30777,11 +30776,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -30796,10 +30795,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>379</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
@@ -30908,10 +30907,10 @@
       <c r="F15" s="60"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="176" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="182"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
@@ -31016,10 +31015,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="176" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="8" t="s">
         <v>818</v>
       </c>
@@ -31142,10 +31141,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="176" t="s">
         <v>414</v>
       </c>
-      <c r="B29" s="182"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="8" t="s">
         <v>816</v>
       </c>
@@ -31286,10 +31285,10 @@
       <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="176" t="s">
         <v>429</v>
       </c>
-      <c r="B37" s="182"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="8" t="s">
         <v>817</v>
       </c>
@@ -31412,10 +31411,10 @@
       <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="181" t="s">
+      <c r="A44" s="176" t="s">
         <v>442</v>
       </c>
-      <c r="B44" s="182"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="8" t="s">
         <v>87</v>
       </c>
@@ -32255,7 +32254,7 @@
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>467</v>
       </c>
       <c r="D2" s="66">
@@ -32278,7 +32277,7 @@
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -32299,7 +32298,7 @@
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -32320,7 +32319,7 @@
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>7</v>
@@ -32341,7 +32340,7 @@
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -32362,7 +32361,7 @@
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>8</v>
@@ -32383,7 +32382,7 @@
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>1</v>
@@ -32398,11 +32397,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -32417,10 +32416,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>468</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
@@ -32779,10 +32778,10 @@
       <c r="F28" s="60"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="176" t="s">
         <v>504</v>
       </c>
-      <c r="B29" s="182"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="8" t="s">
         <v>813</v>
       </c>
@@ -33001,10 +33000,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="182"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
@@ -33165,10 +33164,10 @@
       <c r="F49" s="60"/>
     </row>
     <row r="50" spans="1:6" s="26" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="176" t="s">
         <v>582</v>
       </c>
-      <c r="B50" s="182"/>
+      <c r="B50" s="177"/>
       <c r="C50" s="73" t="s">
         <v>814</v>
       </c>
@@ -33878,8 +33877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33921,7 +33920,7 @@
       <c r="B2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="C2" s="180" t="s">
         <v>603</v>
       </c>
       <c r="D2" s="66">
@@ -33944,7 +33943,7 @@
       <c r="B3" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="177"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -33965,7 +33964,7 @@
       <c r="B4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="177"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -33986,7 +33985,7 @@
       <c r="B5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="177"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -34007,7 +34006,7 @@
       <c r="B6" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="177"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>4</v>
@@ -34028,7 +34027,7 @@
       <c r="B7" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="177"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>4</v>
@@ -34049,7 +34048,7 @@
       <c r="B8" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="177"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>2</v>
@@ -34064,11 +34063,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="178"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="66">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -34083,10 +34082,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="176" t="s">
         <v>604</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="73" t="s">
         <v>807</v>
       </c>
@@ -34100,7 +34099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>91</v>
       </c>
@@ -34117,7 +34116,7 @@
         <v>72</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -34301,10 +34300,10 @@
       <c r="F21" s="60"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="176" t="s">
         <v>627</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="8" t="s">
         <v>87</v>
       </c>
@@ -34409,7 +34408,7 @@
         <v>72</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -34483,7 +34482,7 @@
         <v>76</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -34523,10 +34522,10 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="176" t="s">
         <v>803</v>
       </c>
-      <c r="B34" s="182"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="8" t="s">
         <v>808</v>
       </c>
@@ -34651,10 +34650,10 @@
       <c r="F40" s="60"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="176" t="s">
         <v>673</v>
       </c>
-      <c r="B41" s="182"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="8" t="s">
         <v>87</v>
       </c>
@@ -34685,7 +34684,7 @@
         <v>72</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -35396,65 +35395,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="185" t="s">
         <v>698</v>
       </c>
       <c r="B1" s="75"/>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="200" t="s">
         <v>682</v>
       </c>
-      <c r="D1" s="186"/>
-      <c r="E1" s="185" t="s">
+      <c r="D1" s="201"/>
+      <c r="E1" s="200" t="s">
         <v>683</v>
       </c>
-      <c r="F1" s="186"/>
-      <c r="G1" s="185" t="s">
+      <c r="F1" s="201"/>
+      <c r="G1" s="200" t="s">
         <v>684</v>
       </c>
-      <c r="H1" s="186"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="196"/>
+      <c r="A2" s="186"/>
       <c r="B2" s="75"/>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="202" t="s">
         <v>681</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="203"/>
+      <c r="E2" s="202" t="s">
         <v>681</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="187" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="202" t="s">
         <v>681</v>
       </c>
-      <c r="H2" s="188"/>
-      <c r="J2" s="198" t="s">
+      <c r="H2" s="203"/>
+      <c r="J2" s="188" t="s">
         <v>700</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="200"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="197"/>
+      <c r="A3" s="187"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="189">
+      <c r="C3" s="198">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),0.01))))</f>
         <v>0.93</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="189">
+      <c r="D3" s="199"/>
+      <c r="E3" s="198">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),0.01))))</f>
         <v>0.93</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="189">
+      <c r="F3" s="199"/>
+      <c r="G3" s="198">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),0.01))))</f>
         <v>0.93</v>
       </c>
-      <c r="H3" s="190"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="203"/>
+      <c r="H3" s="199"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -35471,19 +35470,19 @@
         <v>685</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="149" t="s">
         <v>686</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="149" t="s">
         <v>687</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="122" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="149" t="s">
         <v>688</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="J5" s="131" t="s">
+      <c r="H5" s="151"/>
+      <c r="J5" s="143" t="s">
         <v>714</v>
       </c>
       <c r="K5" s="31"/>
@@ -35497,22 +35496,22 @@
         <v>0.75</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="192">
+      <c r="C6" s="195">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>0.18250000000000002</v>
-      </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="192">
+        <v>0.17750000000000002</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="195">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>0.18250000000000002</v>
-      </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="192">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F6" s="196"/>
+      <c r="G6" s="195">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.18250000000000002</v>
-      </c>
-      <c r="H6" s="193"/>
-      <c r="J6" s="132"/>
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="H6" s="196"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="31"/>
       <c r="L6" s="104" t="s">
         <v>707</v>
@@ -35521,19 +35520,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="197" t="s">
         <v>689</v>
       </c>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194" t="s">
+      <c r="D7" s="197"/>
+      <c r="E7" s="197" t="s">
         <v>690</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="197" t="s">
         <v>691</v>
       </c>
-      <c r="H7" s="194"/>
-      <c r="J7" s="132"/>
+      <c r="H7" s="197"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="105"/>
       <c r="L7" s="104" t="s">
         <v>708</v>
@@ -35564,7 +35563,7 @@
       <c r="H8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="132"/>
+      <c r="J8" s="144"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104" t="s">
         <v>709</v>
@@ -35600,7 +35599,7 @@
         <f t="shared" ref="H9:H14" si="2">B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="132"/>
+      <c r="J9" s="144"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104" t="s">
         <v>710</v>
@@ -35636,7 +35635,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="132"/>
+      <c r="J10" s="144"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104" t="s">
         <v>711</v>
@@ -35649,30 +35648,30 @@
       </c>
       <c r="B11" s="11">
         <f>TCRs!$D$4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="82">
         <v>-0.01</v>
       </c>
       <c r="D11" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="100">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="G11" s="80">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="97">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="132"/>
+        <v>-1.25E-3</v>
+      </c>
+      <c r="J11" s="144"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104" t="s">
         <v>712</v>
@@ -35708,7 +35707,7 @@
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J12" s="133"/>
+      <c r="J12" s="145"/>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
         <v>713</v>
@@ -35784,38 +35783,38 @@
       </c>
       <c r="D15" s="99">
         <f>SUM(D9:D14)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="99">
         <f>SUM(F9:F14)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>4.2499999999999996E-2</v>
       </c>
       <c r="G15" s="79" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="99">
         <f>SUM(H9:H14)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="191" t="s">
+      <c r="C16" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191" t="s">
+      <c r="D16" s="194"/>
+      <c r="E16" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F16" s="191"/>
-      <c r="G16" s="191" t="s">
+      <c r="F16" s="194"/>
+      <c r="G16" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H16" s="191"/>
+      <c r="H16" s="194"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -36057,18 +36056,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191" t="s">
+      <c r="D25" s="194"/>
+      <c r="E25" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191" t="s">
+      <c r="F25" s="194"/>
+      <c r="G25" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H25" s="191"/>
+      <c r="H25" s="194"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -36310,18 +36309,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="194"/>
+      <c r="E34" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191" t="s">
+      <c r="F34" s="194"/>
+      <c r="G34" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H34" s="191"/>
+      <c r="H34" s="194"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -36563,18 +36562,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191" t="s">
+      <c r="D43" s="194"/>
+      <c r="E43" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191" t="s">
+      <c r="F43" s="194"/>
+      <c r="G43" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H43" s="191"/>
+      <c r="H43" s="194"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -36816,18 +36815,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="194" t="s">
         <v>689</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191" t="s">
+      <c r="D52" s="194"/>
+      <c r="E52" s="194" t="s">
         <v>690</v>
       </c>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191" t="s">
+      <c r="F52" s="194"/>
+      <c r="G52" s="194" t="s">
         <v>691</v>
       </c>
-      <c r="H52" s="191"/>
+      <c r="H52" s="194"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -37068,6 +37067,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -37084,26 +37103,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
